--- a/biology/Botanique/Mackinlayaceae/Mackinlayaceae.xlsx
+++ b/biology/Botanique/Mackinlayaceae/Mackinlayaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mackinlayaceae (Mackinlayacées) sont une famille de plantes dicotylédones.
-Dans la classification classique de Cronquist (1981)[2], cette famille n'existe pas ; ces plantes sont incluses dans la famille des Araliaceae.
-En classification phylogénétique APG II (2003)[3] elle comptait six genres :
+Dans la classification classique de Cronquist (1981), cette famille n'existe pas ; ces plantes sont incluses dans la famille des Araliaceae.
+En classification phylogénétique APG II (2003) elle comptait six genres :
 Actinotus ;
 Apiopetalum ;
 Centella ;
@@ -492,7 +504,7 @@
 Micropleura ;
 Xanthosia.
 Le APWebsite [20 décembre 2006] n'accepte pas cette famille et la classe comme une sous-famille, les Mackinlayoideae, de la famille des Apiaceae.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille Apiaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Apiaceae.
 </t>
         </is>
       </c>
